--- a/OnBoard/output/trust/catch/Catch_Trust_35.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_35.xlsx
@@ -1679,7 +1679,7 @@
         <v>0.025</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I32">
         <v>10.3238</v>
@@ -1966,7 +1966,7 @@
         <v>0.037</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I39">
         <v>10.3238</v>
@@ -2007,7 +2007,7 @@
         <v>0.341</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I40">
         <v>10.3238</v>
@@ -2130,7 +2130,7 @@
         <v>0.31</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I43">
         <v>10.3238</v>
